--- a/old/Pcod_consumption.xlsx
+++ b/old/Pcod_consumption.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\REEM_foodhabits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\REEM_foodhabits\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="3" r:id="rId1"/>
     <sheet name="Pivot" sheetId="2" r:id="rId2"/>
     <sheet name="Pcod_consumption" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -62,13 +62,16 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>(All)</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>Consumption (mt/day)</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Area 31</t>
   </si>
 </sst>
 </file>
@@ -901,11 +904,11 @@
         </c:dLbls>
         <c:gapWidth val="121"/>
         <c:overlap val="-27"/>
-        <c:axId val="280809320"/>
-        <c:axId val="280809712"/>
+        <c:axId val="439472656"/>
+        <c:axId val="439471480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280809320"/>
+        <c:axId val="439472656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280809712"/>
+        <c:crossAx val="439471480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280809712"/>
+        <c:axId val="439471480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280809320"/>
+        <c:crossAx val="439472656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,50 +1135,19 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Pcod_consumption.xlsx]Pivot!PivotTable6</c:name>
-    <c:fmtId val="2"/>
+    <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1186,11 +1158,11 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1201,11 +1173,11 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1216,11 +1188,11 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1231,11 +1203,11 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1246,11 +1218,101 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1261,37 +1323,38 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$B$3</c:f>
+              <c:f>Pivot!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$4:$A$42</c:f>
+              <c:f>Pivot!$A$5:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
@@ -1413,7 +1476,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$4:$B$42</c:f>
+              <c:f>Pivot!$B$5:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1427,113 +1490,3108 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>747.46603268200715</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>863.54631045514691</c:v>
+                  <c:v>7.6569323313957796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1062.3471846212944</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>328.98127879741423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>746.09115979134504</c:v>
+                  <c:v>7.7872784745790096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>389.29485722067392</c:v>
+                  <c:v>22.921472659113199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>437.04118140628617</c:v>
+                  <c:v>0.81497378581844304</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>220.16355208622051</c:v>
+                  <c:v>47.811023332547002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>256.00825136388238</c:v>
+                  <c:v>0.34399925060346698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>850.90407469861134</c:v>
+                  <c:v>5.2864124812965496</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>528.4088221148312</c:v>
+                  <c:v>1.0057218606539</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>712.91880318112726</c:v>
+                  <c:v>5.7644772893732297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>803.93887327237053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>472.49932335022368</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>233.24381196651959</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>539.67169086128877</c:v>
+                  <c:v>15.9655955370983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>807.30347875421683</c:v>
+                  <c:v>33.531592405409299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>284.26150667316131</c:v>
+                  <c:v>2.79197307766225</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>344.55289707594477</c:v>
+                  <c:v>9.0853070625278498</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>449.59927172506156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>140.51678068078564</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>102.4181783456096</c:v>
+                  <c:v>0.54702192006376804</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>164.79463131178895</c:v>
+                  <c:v>9.5958459491777295E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>129.18536643358786</c:v>
+                  <c:v>0.53845581398404696</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>222.66482780390965</c:v>
+                  <c:v>1.4727428028562199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>311.25080120710305</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>292.19655041040545</c:v>
+                  <c:v>6.2130496014333598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>481.1955639171947</c:v>
+                  <c:v>14.621206350176699</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1233.7082010232396</c:v>
+                  <c:v>1.0610415359612699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1832.5223735129348</c:v>
+                  <c:v>16.059221251969898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2060.5574885656406</c:v>
+                  <c:v>115.105670471306</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>684.99547200740028</c:v>
+                  <c:v>20.551701076961699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1094.6762341228161</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>567.87804262695045</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$C$5:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.787714848425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.534102436967501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.75215048151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>152.736711367624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.96407469872101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.805344199440398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.935380938847899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.606841953539899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8192634820876004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.700795323316996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.772366932029399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.4452573616677</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.1232759241948</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.255708775573297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.922933911413301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.1057950998431</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7704684787538501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.436305547645901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.54298197174968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.1588677869787691</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.112403415655599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4620214766464104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.42175335663647</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80.041527861166898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.772156929982302</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.777687371406401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>562.81873163534794</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>722.68990633936403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.738711537217895</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.715402939221804</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.517095799532797</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.9928661158063496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$D$5:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.484303091947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.417572754261499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204.719970852736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.962489340336099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.993473972635996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.964593599975501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218.137416443837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.3199208603152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.289501870247499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.823107529171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.236250293595504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>209.86704951754001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107.66844498786899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>123.49938020344101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.426741642111299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.347620831887802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.682966716659099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8108654497405701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2178860917765899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1217210664541195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8693669058728002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.628437298384799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.883519554659698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7997103807342896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.298329452647799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2814106660611904</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72.055509023874606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.478907680818494</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90.053607901843094</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>134.30362871526</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.9182095813443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109.512679571985</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.534417403741699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$E$5:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.978884734262799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.470856476793003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8738463652437796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.4572157174594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.382465551822001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.5908862894929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1227683393892196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8744368539218401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9814122628046391</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.411816806190799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.9219749677191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.9479829251224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.314303260465699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6176354702234503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7073809750672302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.4697517324882</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.702459336466799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2703861222083601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.056911624711301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.9058586247187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.2530020659629</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6073367615445302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4209100985709102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5879423149056704</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2730931428279799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.307450847008599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8322092193612498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.07662973042064</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.569417321285002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62.007092041170303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.845040607751898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.410191836913199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.166644290921001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.198404424820598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$F$5:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.344899822782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145.33256397272299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.871509468623302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.726600470628398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195.092267731215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.53452893480301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.801370728781002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.073662292793799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.817094212041297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.521945281684097</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.4926383819165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122.76775879730501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.98712561059901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125.314363967142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.066761500596101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>138.77542565497299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401.35080450743197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.618703381877907</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156.08462155939401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>209.094102986097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.199335200163901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.433985198743599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.294261245275699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.339114756736201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>123.208825211575</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100.775316567909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120.674815133084</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73.715927048692393</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>262.07208702447298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>612.64907301748804</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1150.7871162521301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>219.116446856046</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>424.09064364730602</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>239.68208656884701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$G$5:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.568653218365597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192.902976393194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.739863109811601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.812387269932998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.5467598319674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.672313847621496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.8387458270476</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.583635106035601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.702251531141101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>196.438583477826</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.37805282690201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.025149900491598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.506538025278999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.943158576041901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.136243474123098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.696904223154501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.583222274449803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.722002012095299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.9710033502631</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.052854124991601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.197750178034301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.8036961356592</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.281664739139199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.7807065428455</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.1468343571097392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.2088455571397</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.4411586210226</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.841839522031599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>104.707980967004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175.13680992300701</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>105.87480909115099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.293092241593499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.327038766365902</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61.507830714180201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$H$5:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.490457364175697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1041096384898701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.630420742824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.473282550717599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2184427855754496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.245427728716098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97067327611088505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.5827293422476</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.046091245795701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.224061482698499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.161441303227598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.944027830074599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.786276990571203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.635389363874602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109.385854185162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.02811533686</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.717056923945499</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.815300107879096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.413670052115997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.8212683699882692</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.192205054164599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30.240197644721</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.306227721503099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.5293908125781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.0712081850304</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.036329971856199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.532131979331901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.960721049146199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>211.61241634492799</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122.67727086338699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>270.84313300599001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.4383629340197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$I$5:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8279633675934107E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.880828914290902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9400912203558498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2452773702939997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.414648120354698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.517261594292599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0277993302510797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3348762036048001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5880909380092394</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.9963697868968</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.389916162676201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.8729633497104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.1516523794297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3324064269872</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.24595780875257</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.471609825154699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85642471036674594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.0318305652678</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.72773270079922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65281992873501304</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1471009673066599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5626568122086399</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0430999976435702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3874916780226298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9033694365660896</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2949566620789401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.1055677962235</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.90833121822618</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2257059306448701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.87548703501428</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20424513385858001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$J$5:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171.90207254091399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.720843386892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>461.00098848237002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0017525892566201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.82399294545699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.008037509113102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.222849194098501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.685179456499402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.983602104369993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260.02441369024501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161.570328815354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>203.25564509913599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>274.01237849029297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.803808054634302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.133003410165699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.412219962607793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113.64480470261201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.5123473972629</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.968561359873298</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86.113540202295297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.046320609924599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.9197966321876</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.336047519915098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.913317494602801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.869991973702597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.919326624368999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80.988089945156901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>164.73744817304399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.4081652809503</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>101.512981446477</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100.35117175344701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66.319477400656993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.063671698607003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55.863069029960499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$K$5:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.840767427459099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5255241501394501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.3027346083488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.344839372828602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0619758012462297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2486025615155292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.924099873584876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7790601628060898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.536024489595398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.1509003774717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.5052312016815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7247465012844003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4923391547203204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.9099976867907</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.748055509048797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.196024516500501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.844177722552999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.12783096050984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.648039664348602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8873755866020401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6761198765192198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9696936553339892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0344334899096896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.787070554501399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8668848396850199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5258545270260608</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.8502136792354</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.2934375710519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.344628918073099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.4688078219326</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.669801992714298</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.5423333734362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$L$5:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.289104033831199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0257272253508001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7827224678599495E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8600313863929001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.239433264200967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9866047971722803E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83980461502875603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4073700064864001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9855939580215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7371617483664998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1273940692121398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.33172166563434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.3617549530661</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6614327993983098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.860671052196501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.1243045638548299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32984242963312499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9331130468311399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3252239563522496E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4508190177984597</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1223218286835102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.368238330656385</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.6017921452269697E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.440009503342599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1621118552880001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.8600241290046</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.557827171593399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58.179254533526901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61.0593558749908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot!$A$5:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$M$5:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2265052556398697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.88446718827253E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.2423493156959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6450682557369998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.11917149087426</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.88181294332291</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.06864853862138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4268053987855098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.89847642938537</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.520786304859897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7170839825225404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93200812441288405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9611366342363903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.5948408156407705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.8444256735035207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.094089234264299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.0880337196607</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.6986515602458097</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.43326506092406</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.32679152954344</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.9406832629974904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0590497082489794</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8737294230764796</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68732893893208502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.8981609699548</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.4745577534107</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8918433199058704</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.825939527144698</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74.741338287104796</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43.430783780852799</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.8550710532887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1543,13 +4601,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="220829904"/>
-        <c:axId val="220830296"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="822781568"/>
+        <c:axId val="822780784"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="220829904"/>
+        <c:axId val="822781568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +4649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220830296"/>
+        <c:crossAx val="822780784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +4657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220830296"/>
+        <c:axId val="822780784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +4708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220829904"/>
+        <c:crossAx val="822781568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1743,6 +4800,495 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Area 31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Pivot!$P$5:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot!$Q$5:$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.484303091947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.417572754261499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204.719970852736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.962489340336099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.993473972635996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.964593599975501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218.137416443837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.3199208603152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.289501870247499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.823107529171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.236250293595504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>209.86704951754001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107.66844498786899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>123.49938020344101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.426741642111299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.347620831887802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.682966716659099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8108654497405701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2178860917765899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1217210664541195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8693669058728002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.628437298384799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.883519554659698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7997103807342896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.298329452647799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2814106660611904</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72.055509023874606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.478907680818494</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90.053607901843094</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>134.30362871526</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.9182095813443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109.512679571985</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.534417403741699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="897265688"/>
+        <c:axId val="897266080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="897265688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897266080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="897266080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897265688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1784,6 +5330,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2327,7 +5913,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2435,6 +6021,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2445,6 +6036,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2476,6 +6072,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2531,23 +6130,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2652,8 +6250,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2785,12 +6383,315 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2799,6 +6700,218 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2911,19 +7024,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2933,6 +7046,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7980,8 +12123,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:N43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="39">
@@ -8026,7 +12169,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -8173,21 +12316,203 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Opilio_mt" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="13">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -8467,7 +12792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -8475,7 +12800,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8635,7 +12960,7 @@
         <v>2004</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8766,344 +13091,2040 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A3:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="7" width="12" customWidth="1"/>
+    <col min="8" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>61</v>
+      </c>
+      <c r="K4">
+        <v>62</v>
+      </c>
+      <c r="L4">
+        <v>82</v>
+      </c>
+      <c r="M4">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1982</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1982</v>
+      </c>
+      <c r="Q5">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1983</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1983</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q42" si="0">D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1984</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1984</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1985</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>107.787714848425</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100.484303091947</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31.978884734262799</v>
+      </c>
+      <c r="F8" s="1">
+        <v>125.344899822782</v>
+      </c>
+      <c r="G8" s="1">
+        <v>99.568653218365597</v>
+      </c>
+      <c r="H8" s="1">
+        <v>63.490457364175697</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.8279633675934107E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>171.90207254091399</v>
+      </c>
+      <c r="K8" s="1">
+        <v>46.840767427459099</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>747.46603268200715</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="P8">
+        <v>1985</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>100.484303091947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>1986</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
+        <v>7.6569323313957796</v>
+      </c>
+      <c r="C9" s="1">
+        <v>84.534102436967501</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10.417572754261499</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99.470856476793003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>145.33256397272299</v>
+      </c>
+      <c r="G9" s="1">
+        <v>192.902976393194</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.1041096384898701</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45.880828914290902</v>
+      </c>
+      <c r="J9" s="1">
+        <v>266.720843386892</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.5255241501394501</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
         <v>863.54631045514691</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="P9">
+        <v>1986</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>10.417572754261499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1987</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>103.75215048151</v>
+      </c>
+      <c r="D10" s="1">
+        <v>204.719970852736</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.8738463652437796</v>
+      </c>
+      <c r="F10" s="1">
+        <v>91.871509468623302</v>
+      </c>
+      <c r="G10" s="1">
+        <v>26.739863109811601</v>
+      </c>
+      <c r="H10" s="1">
+        <v>105.630420742824</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.9400912203558498</v>
+      </c>
+      <c r="J10" s="1">
+        <v>461.00098848237002</v>
+      </c>
+      <c r="K10" s="1">
+        <v>41.3027346083488</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13.289104033831199</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.2265052556398697</v>
+      </c>
+      <c r="N10" s="1">
         <v>1062.3471846212944</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="P10">
+        <v>1987</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>204.719970852736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>1988</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>152.736711367624</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16.962489340336099</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15.4572157174594</v>
+      </c>
+      <c r="F11" s="1">
+        <v>95.726600470628398</v>
+      </c>
+      <c r="G11" s="1">
+        <v>33.812387269932998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7.2452773702939997</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7.0017525892566201</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.88446718827253E-2</v>
+      </c>
+      <c r="N11" s="1">
         <v>328.98127879741423</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="P11">
+        <v>1988</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>16.962489340336099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>1989</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
+        <v>7.7872784745790096</v>
+      </c>
+      <c r="C12" s="1">
+        <v>127.96407469872101</v>
+      </c>
+      <c r="D12" s="1">
+        <v>56.993473972635996</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18.382465551822001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>195.092267731215</v>
+      </c>
+      <c r="G12" s="1">
+        <v>38.5467598319674</v>
+      </c>
+      <c r="H12" s="1">
+        <v>54.473282550717599</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45.414648120354698</v>
+      </c>
+      <c r="J12" s="1">
+        <v>127.82399294545699</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44.344839372828602</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6.0257272253508001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>23.2423493156959</v>
+      </c>
+      <c r="N12" s="1">
         <v>746.09115979134504</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="P12">
+        <v>1989</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>56.993473972635996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>1990</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
+        <v>22.921472659113199</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40.805344199440398</v>
+      </c>
+      <c r="D13" s="1">
+        <v>68.964593599975501</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14.5908862894929</v>
+      </c>
+      <c r="F13" s="1">
+        <v>110.53452893480301</v>
+      </c>
+      <c r="G13" s="1">
+        <v>68.672313847621496</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8.2184427855754496</v>
+      </c>
+      <c r="I13" s="1">
+        <v>23.517261594292599</v>
+      </c>
+      <c r="J13" s="1">
+        <v>25.008037509113102</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6.0619758012462297</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>389.29485722067392</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="P13">
+        <v>1990</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>68.964593599975501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1991</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
+        <v>0.81497378581844304</v>
+      </c>
+      <c r="C14" s="1">
+        <v>62.935380938847899</v>
+      </c>
+      <c r="D14" s="1">
+        <v>218.137416443837</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.1227683393892196</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50.801370728781002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>29.8387458270476</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21.245427728716098</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.0277993302510797</v>
+      </c>
+      <c r="J14" s="1">
+        <v>29.222849194098501</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9.2486025615155292</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.7827224678599495E-4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.6450682557369998</v>
+      </c>
+      <c r="N14" s="1">
         <v>437.04118140628617</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="P14">
+        <v>1991</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>218.137416443837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>1992</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
+        <v>47.811023332547002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>24.606841953539899</v>
+      </c>
+      <c r="D15" s="1">
+        <v>61.3199208603152</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.8744368539218401</v>
+      </c>
+      <c r="F15" s="1">
+        <v>31.073662292793799</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13.583635106035601</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.97067327611088505</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.3348762036048001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>31.685179456499402</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.924099873584876</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.8600313863929001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.11917149087426</v>
+      </c>
+      <c r="N15" s="1">
         <v>220.16355208622051</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="P15">
+        <v>1992</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>61.3199208603152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>1993</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
+        <v>0.34399925060346698</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.8192634820876004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>46.289501870247499</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.9814122628046391</v>
+      </c>
+      <c r="F16" s="1">
+        <v>46.817094212041297</v>
+      </c>
+      <c r="G16" s="1">
+        <v>39.702251531141101</v>
+      </c>
+      <c r="H16" s="1">
+        <v>14.5827293422476</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9.5880909380092394</v>
+      </c>
+      <c r="J16" s="1">
+        <v>67.983602104369993</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9.7790601628060898</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.239433264200967</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.88181294332291</v>
+      </c>
+      <c r="N16" s="1">
         <v>256.00825136388238</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="P16">
+        <v>1993</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>46.289501870247499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>1994</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
+        <v>5.2864124812965496</v>
+      </c>
+      <c r="C17" s="1">
+        <v>78.700795323316996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>123.823107529171</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43.411816806190799</v>
+      </c>
+      <c r="F17" s="1">
+        <v>67.521945281684097</v>
+      </c>
+      <c r="G17" s="1">
+        <v>196.438583477826</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30.046091245795701</v>
+      </c>
+      <c r="I17" s="1">
+        <v>17.9963697868968</v>
+      </c>
+      <c r="J17" s="1">
+        <v>260.02441369024501</v>
+      </c>
+      <c r="K17" s="1">
+        <v>20.536024489595398</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4.9866047971722803E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7.06864853862138</v>
+      </c>
+      <c r="N17" s="1">
         <v>850.90407469861134</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="P17">
+        <v>1994</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>123.823107529171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>1995</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
+        <v>1.0057218606539</v>
+      </c>
+      <c r="C18" s="1">
+        <v>80.772366932029399</v>
+      </c>
+      <c r="D18" s="1">
+        <v>46.236250293595504</v>
+      </c>
+      <c r="E18" s="1">
+        <v>14.9219749677191</v>
+      </c>
+      <c r="F18" s="1">
+        <v>52.4926383819165</v>
+      </c>
+      <c r="G18" s="1">
+        <v>105.37805282690201</v>
+      </c>
+      <c r="H18" s="1">
+        <v>24.224061482698499</v>
+      </c>
+      <c r="I18" s="1">
+        <v>23.389916162676201</v>
+      </c>
+      <c r="J18" s="1">
+        <v>161.570328815354</v>
+      </c>
+      <c r="K18" s="1">
+        <v>14.1509003774717</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.83980461502875603</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.4268053987855098</v>
+      </c>
+      <c r="N18" s="1">
         <v>528.4088221148312</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="P18">
+        <v>1995</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>46.236250293595504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>1996</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
+        <v>5.7644772893732297</v>
+      </c>
+      <c r="C19" s="1">
+        <v>35.4452573616677</v>
+      </c>
+      <c r="D19" s="1">
+        <v>209.86704951754001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12.9479829251224</v>
+      </c>
+      <c r="F19" s="1">
+        <v>122.76775879730501</v>
+      </c>
+      <c r="G19" s="1">
+        <v>47.025149900491598</v>
+      </c>
+      <c r="H19" s="1">
+        <v>40.161441303227598</v>
+      </c>
+      <c r="I19" s="1">
+        <v>12.8729633497104</v>
+      </c>
+      <c r="J19" s="1">
+        <v>203.25564509913599</v>
+      </c>
+      <c r="K19" s="1">
+        <v>17.5052312016815</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2.4073700064864001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.89847642938537</v>
+      </c>
+      <c r="N19" s="1">
         <v>712.91880318112726</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="P19">
+        <v>1996</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>209.86704951754001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>1997</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>14.1232759241948</v>
+      </c>
+      <c r="D20" s="1">
+        <v>107.66844498786899</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12.314303260465699</v>
+      </c>
+      <c r="F20" s="1">
+        <v>250.98712561059901</v>
+      </c>
+      <c r="G20" s="1">
+        <v>46.506538025278999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>17.944027830074599</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12.1516523794297</v>
+      </c>
+      <c r="J20" s="1">
+        <v>274.01237849029297</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7.7247465012844003</v>
+      </c>
+      <c r="L20" s="1">
+        <v>15.9855939580215</v>
+      </c>
+      <c r="M20" s="1">
+        <v>44.520786304859897</v>
+      </c>
+      <c r="N20" s="1">
         <v>803.93887327237053</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="P20">
+        <v>1997</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>107.66844498786899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>1998</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43.255708775573297</v>
+      </c>
+      <c r="D21" s="1">
+        <v>123.49938020344101</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.6176354702234503</v>
+      </c>
+      <c r="F21" s="1">
+        <v>125.314363967142</v>
+      </c>
+      <c r="G21" s="1">
+        <v>13.943158576041901</v>
+      </c>
+      <c r="H21" s="1">
+        <v>60.786276990571203</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.3324064269872</v>
+      </c>
+      <c r="J21" s="1">
+        <v>72.803808054634302</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7.4923391547203204</v>
+      </c>
+      <c r="L21" s="1">
+        <v>9.7371617483664998</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6.7170839825225404</v>
+      </c>
+      <c r="N21" s="1">
         <v>472.49932335022368</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="P21">
+        <v>1998</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>123.49938020344101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>1999</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13.922933911413301</v>
+      </c>
+      <c r="D22" s="1">
+        <v>29.426741642111299</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.7073809750672302</v>
+      </c>
+      <c r="F22" s="1">
+        <v>50.066761500596101</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20.136243474123098</v>
+      </c>
+      <c r="H22" s="1">
+        <v>31.635389363874602</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.24595780875257</v>
+      </c>
+      <c r="J22" s="1">
+        <v>57.133003410165699</v>
+      </c>
+      <c r="K22" s="1">
+        <v>18.9099976867907</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4.1273940692121398</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.93200812441288405</v>
+      </c>
+      <c r="N22" s="1">
         <v>233.24381196651959</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="P22">
+        <v>1999</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>29.426741642111299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>2000</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
+        <v>15.9655955370983</v>
+      </c>
+      <c r="C23" s="1">
+        <v>38.1057950998431</v>
+      </c>
+      <c r="D23" s="1">
+        <v>55.347620831887802</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13.4697517324882</v>
+      </c>
+      <c r="F23" s="1">
+        <v>138.77542565497299</v>
+      </c>
+      <c r="G23" s="1">
+        <v>30.696904223154501</v>
+      </c>
+      <c r="H23" s="1">
+        <v>109.385854185162</v>
+      </c>
+      <c r="I23" s="1">
+        <v>15.471609825154699</v>
+      </c>
+      <c r="J23" s="1">
+        <v>80.412219962607793</v>
+      </c>
+      <c r="K23" s="1">
+        <v>32.748055509048797</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3.33172166563434</v>
+      </c>
+      <c r="M23" s="1">
+        <v>5.9611366342363903</v>
+      </c>
+      <c r="N23" s="1">
         <v>539.67169086128877</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="P23">
+        <v>2000</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>55.347620831887802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>2001</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
+        <v>33.531592405409299</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7.7704684787538501</v>
+      </c>
+      <c r="D24" s="1">
+        <v>29.682966716659099</v>
+      </c>
+      <c r="E24" s="1">
+        <v>25.702459336466799</v>
+      </c>
+      <c r="F24" s="1">
+        <v>401.35080450743197</v>
+      </c>
+      <c r="G24" s="1">
+        <v>40.583222274449803</v>
+      </c>
+      <c r="H24" s="1">
+        <v>100.02811533686</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.85642471036674594</v>
+      </c>
+      <c r="J24" s="1">
+        <v>113.64480470261201</v>
+      </c>
+      <c r="K24" s="1">
+        <v>24.196024516500501</v>
+      </c>
+      <c r="L24" s="1">
+        <v>21.3617549530661</v>
+      </c>
+      <c r="M24" s="1">
+        <v>8.5948408156407705</v>
+      </c>
+      <c r="N24" s="1">
         <v>807.30347875421683</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="P24">
+        <v>2001</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>29.682966716659099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>2002</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
+        <v>2.79197307766225</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25.436305547645901</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.8108654497405701</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.2703861222083601</v>
+      </c>
+      <c r="F25" s="1">
+        <v>90.618703381877907</v>
+      </c>
+      <c r="G25" s="1">
+        <v>17.722002012095299</v>
+      </c>
+      <c r="H25" s="1">
+        <v>48.717056923945499</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10.0318305652678</v>
+      </c>
+      <c r="J25" s="1">
+        <v>49.5123473972629</v>
+      </c>
+      <c r="K25" s="1">
+        <v>16.844177722552999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>6.6614327993983098</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8.8444256735035207</v>
+      </c>
+      <c r="N25" s="1">
         <v>284.26150667316131</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="P25">
+        <v>2002</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>1.8108654497405701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>2003</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
+        <v>9.0853070625278498</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.54298197174968</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5.2178860917765899</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13.056911624711301</v>
+      </c>
+      <c r="F26" s="1">
+        <v>156.08462155939401</v>
+      </c>
+      <c r="G26" s="1">
+        <v>30.9710033502631</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40.815300107879096</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4.72773270079922</v>
+      </c>
+      <c r="J26" s="1">
+        <v>33.968561359873298</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5.12783096050984</v>
+      </c>
+      <c r="L26" s="1">
+        <v>19.860671052196501</v>
+      </c>
+      <c r="M26" s="1">
+        <v>23.094089234264299</v>
+      </c>
+      <c r="N26" s="1">
         <v>344.55289707594477</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="P26">
+        <v>2003</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>5.2178860917765899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>2004</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>2004</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>2005</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8.1588677869787691</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>15.9058586247187</v>
+      </c>
+      <c r="F28" s="1">
+        <v>209.094102986097</v>
+      </c>
+      <c r="G28" s="1">
+        <v>30.052854124991601</v>
+      </c>
+      <c r="H28" s="1">
+        <v>48.413670052115997</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>86.113540202295297</v>
+      </c>
+      <c r="K28" s="1">
+        <v>30.648039664348602</v>
+      </c>
+      <c r="L28" s="1">
+        <v>6.1243045638548299</v>
+      </c>
+      <c r="M28" s="1">
+        <v>15.0880337196607</v>
+      </c>
+      <c r="N28" s="1">
         <v>449.59927172506156</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="P28">
+        <v>2005</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>2006</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9.1217210664541195</v>
+      </c>
+      <c r="E29" s="1">
+        <v>14.2530020659629</v>
+      </c>
+      <c r="F29" s="1">
+        <v>54.199335200163901</v>
+      </c>
+      <c r="G29" s="1">
+        <v>28.197750178034301</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>28.046320609924599</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>6.6986515602458097</v>
+      </c>
+      <c r="N29" s="1">
         <v>140.51678068078564</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="P29">
+        <v>2006</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>9.1217210664541195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>2007</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
+        <v>0.54702192006376804</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12.112403415655599</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.8693669058728002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.6073367615445302</v>
+      </c>
+      <c r="F30" s="1">
+        <v>43.433985198743599</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13.8036961356592</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8.8212683699882692</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.65281992873501304</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10.9197966321876</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1.8873755866020401</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.32984242963312499</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.43326506092406</v>
+      </c>
+      <c r="N30" s="1">
         <v>102.4181783456096</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="P30">
+        <v>2007</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>5.8693669058728002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>2008</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
+        <v>9.5958459491777295E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.4620214766464104</v>
+      </c>
+      <c r="D31" s="1">
+        <v>16.628437298384799</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.4209100985709102</v>
+      </c>
+      <c r="F31" s="1">
+        <v>29.294261245275699</v>
+      </c>
+      <c r="G31" s="1">
+        <v>23.281664739139199</v>
+      </c>
+      <c r="H31" s="1">
+        <v>14.192205054164599</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.1471009673066599</v>
+      </c>
+      <c r="J31" s="1">
+        <v>63.336047519915098</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3.6761198765192198</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3.9331130468311399</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.32679152954344</v>
+      </c>
+      <c r="N31" s="1">
         <v>164.79463131178895</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="P31">
+        <v>2008</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>16.628437298384799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>2009</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
+        <v>0.53845581398404696</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.42175335663647</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.883519554659698</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5.5879423149056704</v>
+      </c>
+      <c r="F32" s="1">
+        <v>28.339114756736201</v>
+      </c>
+      <c r="G32" s="1">
+        <v>18.7807065428455</v>
+      </c>
+      <c r="H32" s="1">
+        <v>30.240197644721</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.5626568122086399</v>
+      </c>
+      <c r="J32" s="1">
+        <v>24.913317494602801</v>
+      </c>
+      <c r="K32" s="1">
+        <v>8.9696936553339892</v>
+      </c>
+      <c r="L32" s="1">
+        <v>7.3252239563522496E-3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>5.9406832629974904</v>
+      </c>
+      <c r="N32" s="1">
         <v>129.18536643358786</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="P32">
+        <v>2009</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>0.883519554659698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>2010</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
+        <v>1.4727428028562199</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5.7997103807342896</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.2730931428279799</v>
+      </c>
+      <c r="F33" s="1">
+        <v>123.208825211575</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8.1468343571097392</v>
+      </c>
+      <c r="H33" s="1">
+        <v>22.306227721503099</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2.0430999976435702</v>
+      </c>
+      <c r="J33" s="1">
+        <v>33.869991973702597</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9.0344334899096896</v>
+      </c>
+      <c r="L33" s="1">
+        <v>6.4508190177984597</v>
+      </c>
+      <c r="M33" s="1">
+        <v>9.0590497082489794</v>
+      </c>
+      <c r="N33" s="1">
         <v>222.66482780390965</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="P33">
+        <v>2010</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>5.7997103807342896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>2011</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>80.041527861166898</v>
+      </c>
+      <c r="D34" s="1">
+        <v>22.298329452647799</v>
+      </c>
+      <c r="E34" s="1">
+        <v>15.307450847008599</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100.775316567909</v>
+      </c>
+      <c r="G34" s="1">
+        <v>23.2088455571397</v>
+      </c>
+      <c r="H34" s="1">
+        <v>19.5293908125781</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3.3874916780226298</v>
+      </c>
+      <c r="J34" s="1">
+        <v>27.919326624368999</v>
+      </c>
+      <c r="K34" s="1">
+        <v>11.787070554501399</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2.1223218286835102</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4.8737294230764796</v>
+      </c>
+      <c r="N34" s="1">
         <v>311.25080120710305</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="P34">
+        <v>2011</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>22.298329452647799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>2012</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
+        <v>6.2130496014333598</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45.772156929982302</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.2814106660611904</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.8322092193612498</v>
+      </c>
+      <c r="F35" s="1">
+        <v>120.674815133084</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10.4411586210226</v>
+      </c>
+      <c r="H35" s="1">
+        <v>12.0712081850304</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>80.988089945156901</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6.8668848396850199</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.368238330656385</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.68732893893208502</v>
+      </c>
+      <c r="N35" s="1">
         <v>292.19655041040545</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="P35">
+        <v>2012</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>5.2814106660611904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>2013</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
+        <v>14.621206350176699</v>
+      </c>
+      <c r="C36" s="1">
+        <v>56.777687371406401</v>
+      </c>
+      <c r="D36" s="1">
+        <v>72.055509023874606</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7.07662973042064</v>
+      </c>
+      <c r="F36" s="1">
+        <v>73.715927048692393</v>
+      </c>
+      <c r="G36" s="1">
+        <v>50.841839522031599</v>
+      </c>
+      <c r="H36" s="1">
+        <v>11.036329971856199</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7.9033694365660896</v>
+      </c>
+      <c r="J36" s="1">
+        <v>164.73744817304399</v>
+      </c>
+      <c r="K36" s="1">
+        <v>8.5258545270260608</v>
+      </c>
+      <c r="L36" s="1">
+        <v>5.6017921452269697E-3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>13.8981609699548</v>
+      </c>
+      <c r="N36" s="1">
         <v>481.1955639171947</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="P36">
+        <v>2013</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>72.055509023874606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>2014</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
+        <v>1.0610415359612699</v>
+      </c>
+      <c r="C37" s="1">
+        <v>562.81873163534794</v>
+      </c>
+      <c r="D37" s="1">
+        <v>92.478907680818494</v>
+      </c>
+      <c r="E37" s="1">
+        <v>59.569417321285002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>262.07208702447298</v>
+      </c>
+      <c r="G37" s="1">
+        <v>104.707980967004</v>
+      </c>
+      <c r="H37" s="1">
+        <v>36.532131979331901</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5.2949566620789401</v>
+      </c>
+      <c r="J37" s="1">
+        <v>71.4081652809503</v>
+      </c>
+      <c r="K37" s="1">
+        <v>13.8502136792354</v>
+      </c>
+      <c r="L37" s="1">
+        <v>12.440009503342599</v>
+      </c>
+      <c r="M37" s="1">
+        <v>11.4745577534107</v>
+      </c>
+      <c r="N37" s="1">
         <v>1233.7082010232396</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="P37">
+        <v>2014</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>92.478907680818494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>2015</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1">
+        <v>16.059221251969898</v>
+      </c>
+      <c r="C38" s="1">
+        <v>722.68990633936403</v>
+      </c>
+      <c r="D38" s="1">
+        <v>90.053607901843094</v>
+      </c>
+      <c r="E38" s="1">
+        <v>62.007092041170303</v>
+      </c>
+      <c r="F38" s="1">
+        <v>612.64907301748804</v>
+      </c>
+      <c r="G38" s="1">
+        <v>175.13680992300701</v>
+      </c>
+      <c r="H38" s="1">
+        <v>15.960721049146199</v>
+      </c>
+      <c r="I38" s="1">
+        <v>16.1055677962235</v>
+      </c>
+      <c r="J38" s="1">
+        <v>101.512981446477</v>
+      </c>
+      <c r="K38" s="1">
+        <v>11.2934375710519</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.1621118552880001</v>
+      </c>
+      <c r="M38" s="1">
+        <v>7.8918433199058704</v>
+      </c>
+      <c r="N38" s="1">
         <v>1832.5223735129348</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="P38">
+        <v>2015</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>90.053607901843094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>2016</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
+        <v>115.105670471306</v>
+      </c>
+      <c r="C39" s="1">
+        <v>77.738711537217895</v>
+      </c>
+      <c r="D39" s="1">
+        <v>134.30362871526</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44.845040607751898</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1150.7871162521301</v>
+      </c>
+      <c r="G39" s="1">
+        <v>105.87480909115099</v>
+      </c>
+      <c r="H39" s="1">
+        <v>211.61241634492799</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.90833121822618</v>
+      </c>
+      <c r="J39" s="1">
+        <v>100.35117175344701</v>
+      </c>
+      <c r="K39" s="1">
+        <v>34.344628918073099</v>
+      </c>
+      <c r="L39" s="1">
+        <v>50.8600241290046</v>
+      </c>
+      <c r="M39" s="1">
+        <v>32.825939527144698</v>
+      </c>
+      <c r="N39" s="1">
         <v>2060.5574885656406</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="P39">
+        <v>2016</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>134.30362871526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>2017</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
+        <v>20.551701076961699</v>
+      </c>
+      <c r="C40" s="1">
+        <v>84.715402939221804</v>
+      </c>
+      <c r="D40" s="1">
+        <v>11.9182095813443</v>
+      </c>
+      <c r="E40" s="1">
+        <v>18.410191836913199</v>
+      </c>
+      <c r="F40" s="1">
+        <v>219.116446856046</v>
+      </c>
+      <c r="G40" s="1">
+        <v>26.293092241593499</v>
+      </c>
+      <c r="H40" s="1">
+        <v>122.67727086338699</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2.2257059306448701</v>
+      </c>
+      <c r="J40" s="1">
+        <v>66.319477400656993</v>
+      </c>
+      <c r="K40" s="1">
+        <v>16.4688078219326</v>
+      </c>
+      <c r="L40" s="1">
+        <v>21.557827171593399</v>
+      </c>
+      <c r="M40" s="1">
+        <v>74.741338287104796</v>
+      </c>
+      <c r="N40" s="1">
         <v>684.99547200740028</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="P40">
+        <v>2017</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>11.9182095813443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>2018</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>34.517095799532797</v>
+      </c>
+      <c r="D41" s="1">
+        <v>109.512679571985</v>
+      </c>
+      <c r="E41" s="1">
+        <v>14.166644290921001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>424.09064364730602</v>
+      </c>
+      <c r="G41" s="1">
+        <v>38.327038766365902</v>
+      </c>
+      <c r="H41" s="1">
+        <v>270.84313300599001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2.87548703501428</v>
+      </c>
+      <c r="J41" s="1">
+        <v>63.063671698607003</v>
+      </c>
+      <c r="K41" s="1">
+        <v>35.669801992714298</v>
+      </c>
+      <c r="L41" s="1">
+        <v>58.179254533526901</v>
+      </c>
+      <c r="M41" s="1">
+        <v>43.430783780852799</v>
+      </c>
+      <c r="N41" s="1">
         <v>1094.6762341228161</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="P41">
+        <v>2018</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>109.512679571985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>2019</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7.9928661158063496</v>
+      </c>
+      <c r="D42" s="1">
+        <v>21.534417403741699</v>
+      </c>
+      <c r="E42" s="1">
+        <v>18.198404424820598</v>
+      </c>
+      <c r="F42" s="1">
+        <v>239.68208656884701</v>
+      </c>
+      <c r="G42" s="1">
+        <v>61.507830714180201</v>
+      </c>
+      <c r="H42" s="1">
+        <v>63.4383629340197</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.20424513385858001</v>
+      </c>
+      <c r="J42" s="1">
+        <v>55.863069029960499</v>
+      </c>
+      <c r="K42" s="1">
+        <v>13.5423333734362</v>
+      </c>
+      <c r="L42" s="1">
+        <v>61.0593558749908</v>
+      </c>
+      <c r="M42" s="1">
+        <v>24.8550710532887</v>
+      </c>
+      <c r="N42" s="1">
         <v>567.87804262695045</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="P42">
+        <v>2019</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>21.534417403741699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
+        <v>337.03282883228303</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2753.2366062983151</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2114.6090112537654</v>
+      </c>
+      <c r="E43" s="1">
+        <v>643.61459914003615</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6039.707782991879</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1811.3713557570193</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1666.1336921877066</v>
+      </c>
+      <c r="I43" s="1">
+        <v>289.40484963769939</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3474.0492449764515</v>
+      </c>
+      <c r="K43" s="1">
+        <v>534.82762762845459</v>
+      </c>
+      <c r="L43" s="1">
+        <v>330.37799439871031</v>
+      </c>
+      <c r="M43" s="1">
+        <v>402.43728096467663</v>
+      </c>
+      <c r="N43" s="1">
         <v>20396.802874066998</v>
       </c>
     </row>
